--- a/Гласарый і стайлгайд перакладу Ubuntu на беларускую мову.xlsx
+++ b/Гласарый і стайлгайд перакладу Ubuntu на беларускую мову.xlsx
@@ -12,14 +12,14 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Спіс тэрмінаў'!$A$1:$D$2038</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Стайлгайд'!$A$1:$C$24</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Карысныя спасылкі'!$A$1:$C$15</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Прапанаваныя тэрміны'!$A$1:$E$1082</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Прапанаваныя тэрміны'!$A$1:$E$1099</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="2833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="2873">
   <si>
     <t>тэрмін на мове арыгінала</t>
   </si>
@@ -8729,6 +8729,126 @@
   </si>
   <si>
     <t>у кантэксце працы з файлавымі сістэмамі толькі так</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>псеўданім</t>
+  </si>
+  <si>
+    <t>прозьвішча</t>
+  </si>
+  <si>
+    <t>Выкарыстоўваецца ў БД і кансолі bash</t>
+  </si>
+  <si>
+    <t>сінтаксічны аналізатар</t>
+  </si>
+  <si>
+    <t>Даволі часта зьяўляецца часткай канвертараў (і ня толькі), бо перад канвертацыяй бывае неабходна "распарсіць", то бок сінтаксічна прааналізаваць уваходную інфармацыю.</t>
+  </si>
+  <si>
+    <t>spot color</t>
+  </si>
+  <si>
+    <t>плашкавы колер</t>
+  </si>
+  <si>
+    <t>Пятно колеру</t>
+  </si>
+  <si>
+    <t>Чорт яго ведае, як правільна, але трэба думаць, бо гэта часты тэрмін у GNOME.</t>
+  </si>
+  <si>
+    <t>checksum</t>
+  </si>
+  <si>
+    <t>кантрольная сума</t>
+  </si>
+  <si>
+    <t>invoke</t>
+  </si>
+  <si>
+    <t>выклікаць</t>
+  </si>
+  <si>
+    <t>прыманціраваць, падключыць</t>
+  </si>
+  <si>
+    <t>прымантаваць</t>
+  </si>
+  <si>
+    <t>Звычайна гэта аперацыя з раздзеламі памяці ў linux.</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>цыкл</t>
+  </si>
+  <si>
+    <t>У дычыненні да праграм гэта менавіта цыкл, але трэба глядзець на кантэкст, бо магчымы іншыя сэнсы.</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>кадр, блок даных, цыклічна паўтаральны блок даныз</t>
+  </si>
+  <si>
+    <t>Слова вельмі залежыць ад кантэксту (відэа, сеціва, тэлекамунікацыя)</t>
+  </si>
+  <si>
+    <t>stack trace</t>
+  </si>
+  <si>
+    <t>трасіроўка стэка, адсочванне выклікаў</t>
+  </si>
+  <si>
+    <t>фрэйм, пакет інфармацыі</t>
+  </si>
+  <si>
+    <t>Дапаўненне да папярэдняй прапановы па фрэйму.</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>радок, лінія</t>
+  </si>
+  <si>
+    <t>Адносна коду ці тэкставай інфармацыі гэта часцей за ўсё менавіта радок.</t>
+  </si>
+  <si>
+    <t>octal number</t>
+  </si>
+  <si>
+    <t>васьмярковы лік</t>
+  </si>
+  <si>
+    <t>hex number</t>
+  </si>
+  <si>
+    <t>шаснаццатковы лік</t>
+  </si>
+  <si>
+    <t>параметр, зменная</t>
+  </si>
+  <si>
+    <t>keymap</t>
+  </si>
+  <si>
+    <t>раскладка</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>працэс</t>
+  </si>
+  <si>
+    <t>A job in Linux is a comand or a task that is up and running but hasn't yet finished.</t>
   </si>
 </sst>
 </file>
@@ -39168,123 +39288,230 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="67">
+        <v>44555.89543592592</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>2836</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
+      <c r="A62" s="64">
+        <v>44555.897025300925</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>2838</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="67">
+        <v>44555.898225625</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>2842</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="A64" s="64">
+        <v>44555.898539166665</v>
+      </c>
+      <c r="B64" s="65" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>2844</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="67">
+        <v>44555.90124244213</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C65" s="68" t="s">
+        <v>2846</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="A66" s="64">
+        <v>44555.90630296296</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D66" s="65" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E66" s="65" t="s">
+        <v>2849</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="67">
+        <v>44555.90840908565</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>2852</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
+      <c r="A68" s="64">
+        <v>44555.914376678236</v>
+      </c>
+      <c r="B68" s="65" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>2855</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="67">
+        <v>44555.91634094907</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>2857</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
+      <c r="A70" s="64">
+        <v>44555.91936886574</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>2858</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="67">
+        <v>44555.92187855324</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C71" s="68" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E71" s="68" t="s">
+        <v>2862</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="A72" s="64">
+        <v>44555.923168043984</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>2497</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="67">
+        <v>44555.924585625005</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
+      <c r="A74" s="64">
+        <v>44555.92568850695</v>
+      </c>
+      <c r="B74" s="65" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>2866</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
+      <c r="A75" s="67">
+        <v>44555.92985344907</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>2867</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
+      <c r="A76" s="64">
+        <v>44555.9346056713</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>2869</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="A77" s="67">
+        <v>44555.93739766204</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C77" s="68" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E77" s="68" t="s">
+        <v>2872</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="19"/>
@@ -46321,19 +46548,138 @@
       <c r="D1082" s="19"/>
       <c r="E1082" s="19"/>
     </row>
+    <row r="1083">
+      <c r="A1083" s="8"/>
+      <c r="B1083" s="8"/>
+      <c r="C1083" s="8"/>
+      <c r="D1083" s="8"/>
+      <c r="E1083" s="8"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="19"/>
+      <c r="B1084" s="19"/>
+      <c r="C1084" s="19"/>
+      <c r="D1084" s="19"/>
+      <c r="E1084" s="19"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="8"/>
+      <c r="B1085" s="8"/>
+      <c r="C1085" s="8"/>
+      <c r="D1085" s="8"/>
+      <c r="E1085" s="8"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="19"/>
+      <c r="B1086" s="19"/>
+      <c r="C1086" s="19"/>
+      <c r="D1086" s="19"/>
+      <c r="E1086" s="19"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="8"/>
+      <c r="B1087" s="8"/>
+      <c r="C1087" s="8"/>
+      <c r="D1087" s="8"/>
+      <c r="E1087" s="8"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="19"/>
+      <c r="B1088" s="19"/>
+      <c r="C1088" s="19"/>
+      <c r="D1088" s="19"/>
+      <c r="E1088" s="19"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="8"/>
+      <c r="B1089" s="8"/>
+      <c r="C1089" s="8"/>
+      <c r="D1089" s="8"/>
+      <c r="E1089" s="8"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="19"/>
+      <c r="B1090" s="19"/>
+      <c r="C1090" s="19"/>
+      <c r="D1090" s="19"/>
+      <c r="E1090" s="19"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="8"/>
+      <c r="B1091" s="8"/>
+      <c r="C1091" s="8"/>
+      <c r="D1091" s="8"/>
+      <c r="E1091" s="8"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="19"/>
+      <c r="B1092" s="19"/>
+      <c r="C1092" s="19"/>
+      <c r="D1092" s="19"/>
+      <c r="E1092" s="19"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="8"/>
+      <c r="B1093" s="8"/>
+      <c r="C1093" s="8"/>
+      <c r="D1093" s="8"/>
+      <c r="E1093" s="8"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="19"/>
+      <c r="B1094" s="19"/>
+      <c r="C1094" s="19"/>
+      <c r="D1094" s="19"/>
+      <c r="E1094" s="19"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="8"/>
+      <c r="B1095" s="8"/>
+      <c r="C1095" s="8"/>
+      <c r="D1095" s="8"/>
+      <c r="E1095" s="8"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="19"/>
+      <c r="B1096" s="19"/>
+      <c r="C1096" s="19"/>
+      <c r="D1096" s="19"/>
+      <c r="E1096" s="19"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="8"/>
+      <c r="B1097" s="8"/>
+      <c r="C1097" s="8"/>
+      <c r="D1097" s="8"/>
+      <c r="E1097" s="8"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="19"/>
+      <c r="B1098" s="19"/>
+      <c r="C1098" s="19"/>
+      <c r="D1098" s="19"/>
+      <c r="E1098" s="19"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="8"/>
+      <c r="B1099" s="8"/>
+      <c r="C1099" s="8"/>
+      <c r="D1099" s="8"/>
+      <c r="E1099" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$1082"/>
-  <conditionalFormatting sqref="C1:C1082">
+  <autoFilter ref="$A$1:$E$1099"/>
+  <conditionalFormatting sqref="C1:C1099">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1082">
+  <conditionalFormatting sqref="C1:C1099">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" ! ">
       <formula>NOT(ISERROR(SEARCH((" ! "),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1082">
+  <conditionalFormatting sqref="C1:C1099">
     <cfRule type="beginsWith" dxfId="2" priority="3" operator="beginsWith" text="!">
       <formula>LEFT((C1),LEN("!"))=("!")</formula>
     </cfRule>

--- a/Гласарый і стайлгайд перакладу Ubuntu на беларускую мову.xlsx
+++ b/Гласарый і стайлгайд перакладу Ubuntu на беларускую мову.xlsx
@@ -7726,7 +7726,7 @@
     <t>variable</t>
   </si>
   <si>
-    <t>зменная</t>
+    <t>пераменная</t>
   </si>
   <si>
     <t>version</t>
